--- a/biology/Médecine/Citerne_du_chyle/Citerne_du_chyle.xlsx
+++ b/biology/Médecine/Citerne_du_chyle/Citerne_du_chyle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La citerne du chyle (ou réservoir du chyle ou citerne de Pecquet ou sac de van Horne) est une structure lymphatique situé dans l'abdomen.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La citerne du chyle est un sac dilaté de 2 à 3 cm de diamètre situé dans la partie inférieure de la partie abdominale du conduit thoracique en regard de la deuxième ou de la troisième vertèbre lombaire en arrière de l'aorte abdominale. 
 Elle est le résultat de la fusion des deux troncs lymphatiques lombaires gauche et droit et forme le début du conduit thoracique. Elle reçoit également des troncs intestinaux. 
@@ -543,7 +557,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La citerne du chyle draine toute la  lymphe issue de l'ensemble des ganglions lymphatiques sous-diaphragmatiques. Elle doit son nom au chyle riche en lipides absorbés par la muqueuse intestinale.
 </t>
@@ -574,11 +590,13 @@
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez le chien, la citerne du chyle est située à gauche et souvent ventrale par rapport à l'aorte.
 Chez le chat, elle est gauche et dorsal.
-Chez le cobaye, elle s'étend vers la gauche et se jette dans la veine innommée gauche[1].
+Chez le cobaye, elle s'étend vers la gauche et se jette dans la veine innommée gauche.
 </t>
         </is>
       </c>
